--- a/patient_data/patient_32.xlsx
+++ b/patient_data/patient_32.xlsx
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1140,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1191,13 +1191,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1422,13 +1422,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1715,13 +1715,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1750,25 +1750,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1827,25 +1827,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1869,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -1904,19 +1904,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1946,16 +1946,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -1981,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2023,16 +2023,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2103,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2156,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
